--- a/data/trans_dic/P62A$jubilacion-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Edad-trans_dic.xlsx
@@ -824,11 +824,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6577986619759103</v>
+        <v>0.7741981635794186</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.3759955514575012</v>
+        <v>0.3703904051834386</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
@@ -836,11 +836,11 @@
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>0.3018364265211006</v>
+        <v>0.3284266618879686</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.221946960228593</v>
+        <v>0.2281500843126035</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -889,7 +889,7 @@
         <v>0.06078642325740065</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.01529631525938643</v>
+        <v>0.01529631525938642</v>
       </c>
     </row>
     <row r="11">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1224073527400518</v>
+        <v>0.1505031589993331</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -910,23 +910,23 @@
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>0.04863778420102992</v>
+        <v>0.04802731986076302</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.02883388312222852</v>
+        <v>0.02865526132765937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1257207491766901</v>
+        <v>0.1327088158514684</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01509069560100059</v>
+        <v>0.01508547316413219</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>0</v>
@@ -940,36 +940,36 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5555853139091915</v>
+        <v>0.5672231856850801</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08886146634122029</v>
+        <v>0.08471560041187676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1588262709797204</v>
+        <v>0.1902297863479986</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.3650279566053957</v>
+        <v>0.3587051997290069</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.2456000352952657</v>
+        <v>0.2188016960951991</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1227278996848696</v>
+        <v>0.1337598075920358</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3968171224335127</v>
+        <v>0.424112781605423</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06473184911727116</v>
+        <v>0.06077394944189984</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.139278394950319</v>
+        <v>0.1364550562669078</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08919474670067357</v>
+        <v>0.08102738940945739</v>
       </c>
     </row>
     <row r="13">
@@ -1005,7 +1005,7 @@
         <v>0.2371893394437808</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.05916162623081961</v>
+        <v>0.05916162623081962</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3459309634488436</v>
@@ -1028,40 +1028,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2569613520018675</v>
+        <v>0.2678647775882917</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02945077257120616</v>
+        <v>0.04036976280969009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2409169732893953</v>
+        <v>0.2282152580019508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0600079954937178</v>
+        <v>0.06415606777633284</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.161621351413405</v>
+        <v>0.164578772164307</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01850737729892106</v>
+        <v>0.01783427915588259</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1319489220097348</v>
+        <v>0.1263602592291209</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01566348211010207</v>
+        <v>0.01661797280830593</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2532537491917256</v>
+        <v>0.2546150357053287</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03378714973505295</v>
+        <v>0.03877750556231776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2271290200392428</v>
+        <v>0.2107729500192428</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05585940720055926</v>
+        <v>0.05128947091757045</v>
       </c>
     </row>
     <row r="15">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5440352611287069</v>
+        <v>0.5534305031146826</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1756371513677741</v>
+        <v>0.1763742736766051</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.457662119799672</v>
+        <v>0.4573905871312907</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2648092641028151</v>
+        <v>0.2756185747343498</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.431203401164615</v>
+        <v>0.4493704280842525</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1600491443138097</v>
+        <v>0.1579562740666308</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3678214639764117</v>
+        <v>0.3718184150254367</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1269029131207975</v>
+        <v>0.1477581039473298</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4474039749721521</v>
+        <v>0.4543860209001906</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1320762138889873</v>
+        <v>0.1382630808526658</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3962459032706753</v>
+        <v>0.3924792692230436</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1906132290827854</v>
+        <v>0.179103596192618</v>
       </c>
     </row>
     <row r="16">
@@ -1129,7 +1129,7 @@
         <v>0.7687348324039842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3613091972434487</v>
+        <v>0.3613091972434486</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3370511813091263</v>
@@ -1164,40 +1164,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7703354951826747</v>
+        <v>0.7768774437165054</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5617901242274512</v>
+        <v>0.5684954378256614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7053154469188972</v>
+        <v>0.7072193085612524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2923753175975068</v>
+        <v>0.2924186123362814</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2422937504147114</v>
+        <v>0.2445670809168281</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1696988304157934</v>
+        <v>0.1721996135427099</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3231446956440996</v>
+        <v>0.3314146538088456</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1415208769659101</v>
+        <v>0.1432107793063707</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6061626331791985</v>
+        <v>0.6168765168366555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.441568341644047</v>
+        <v>0.441334709848013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5923498168131821</v>
+        <v>0.5907985746505762</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2515229057265618</v>
+        <v>0.2484222083911361</v>
       </c>
     </row>
     <row r="18">
@@ -1208,40 +1208,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8816651320096979</v>
+        <v>0.8838810997573693</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7213024478812704</v>
+        <v>0.7245677848815857</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8295561186589213</v>
+        <v>0.8249835413832114</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4327216905927925</v>
+        <v>0.4180441932084802</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4545078907366171</v>
+        <v>0.4410231762443598</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.354006203798671</v>
+        <v>0.3409338988218087</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5179732879516148</v>
+        <v>0.5217544086566692</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2515008748941681</v>
+        <v>0.2583200695736782</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7266872350630814</v>
+        <v>0.7299925829038356</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.57240384139291</v>
+        <v>0.567538989811698</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.699146140987988</v>
+        <v>0.7076904783285581</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3457224686333366</v>
+        <v>0.3484438262144571</v>
       </c>
     </row>
     <row r="19">
@@ -1265,7 +1265,7 @@
         <v>0.9935121432013193</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6195323208119637</v>
+        <v>0.619532320811964</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4901129428769197</v>
@@ -1277,7 +1277,7 @@
         <v>0.6103156692950639</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5348381232043616</v>
+        <v>0.5348381232043615</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7990937466216179</v>
@@ -1289,7 +1289,7 @@
         <v>0.8325841066429788</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.5832190263009389</v>
+        <v>0.5832190263009388</v>
       </c>
     </row>
     <row r="20">
@@ -1300,40 +1300,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9739750153282518</v>
+        <v>0.9733724484013573</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9416043667048718</v>
+        <v>0.9471747970804469</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9771056617351004</v>
+        <v>0.9774981853810533</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.570901349712805</v>
+        <v>0.5706846254949122</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4192533610594668</v>
+        <v>0.4164405918043899</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5060949879237276</v>
+        <v>0.5041265974385711</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5474488334456811</v>
+        <v>0.5349666199173376</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4889673458674382</v>
+        <v>0.4921749874168029</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7614499477068228</v>
+        <v>0.7617774614892826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7698326362145566</v>
+        <v>0.7663116630274445</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7989717892609542</v>
+        <v>0.7972197262814603</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5478009575922634</v>
+        <v>0.5500482435783315</v>
       </c>
     </row>
     <row r="21">
@@ -1344,40 +1344,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9968775652091131</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9903037269908053</v>
+        <v>0.992850433373932</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6611771073753918</v>
+        <v>0.6611910896927572</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5703721050844474</v>
+        <v>0.5599559596483965</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6416511097375842</v>
+        <v>0.6344485880517121</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6728784148662327</v>
+        <v>0.6705104594744449</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5840404834108471</v>
+        <v>0.5829102123697525</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8329453063134384</v>
+        <v>0.8371418070412986</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8382968786002029</v>
+        <v>0.8367304280338838</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8646029833225524</v>
+        <v>0.8647838928173486</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6145263040038053</v>
+        <v>0.6134781493709494</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1401,7 @@
         <v>0.9891877571069739</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6573939492165594</v>
+        <v>0.6573939492165595</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.391876346401739</v>
@@ -1437,37 +1437,37 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.9831018615705621</v>
+        <v>0.978826129652935</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9710891323373131</v>
+        <v>0.9714142139676233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6096900150601303</v>
+        <v>0.6114256065171453</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3287601417416194</v>
+        <v>0.3281792352925955</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.308836058571528</v>
+        <v>0.312149387527984</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3231973475027483</v>
+        <v>0.3256341753318215</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2459466714862354</v>
+        <v>0.2465504629529569</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6229514645428127</v>
+        <v>0.6220201793142144</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6121243121677317</v>
+        <v>0.6101961585661119</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6219742955770726</v>
+        <v>0.6207282592008704</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4130992977916967</v>
+        <v>0.4149145606273609</v>
       </c>
     </row>
     <row r="24">
@@ -1482,34 +1482,34 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9964738156183651</v>
+        <v>0.9964371182202512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7017835942585074</v>
+        <v>0.7022544203552716</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4594641448785026</v>
+        <v>0.4540744361245236</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4291460789987325</v>
+        <v>0.4254154480897076</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4536252016396394</v>
+        <v>0.4501899391137276</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3195779842058868</v>
+        <v>0.3182607356847585</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7127884048740093</v>
+        <v>0.7161426236461316</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.697472978212645</v>
+        <v>0.6976365435567273</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7118282750997638</v>
+        <v>0.7109059657783745</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4784774555066112</v>
+        <v>0.4784492136029884</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7351277119032116</v>
+        <v>0.7331375675889042</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8084283891039097</v>
+        <v>0.8080205833460281</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4943884720515848</v>
+        <v>0.4926624636743806</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3232415195280267</v>
+        <v>0.3214452472318024</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3941497495051181</v>
+        <v>0.3929548177986558</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.295365616729426</v>
+        <v>0.2962072901321138</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5512540068406655</v>
+        <v>0.5532218172313791</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.626063172720514</v>
+        <v>0.6295766450838158</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4069880697762037</v>
+        <v>0.4062266150822802</v>
       </c>
     </row>
     <row r="27">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7962191315817851</v>
+        <v>0.7933918291184787</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8607332809633877</v>
+        <v>0.8614011062200717</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5522007577735325</v>
+        <v>0.5548775517660282</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3940327921908051</v>
+        <v>0.3929030334993346</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4696533886420135</v>
+        <v>0.469747276393998</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.345808937132716</v>
+        <v>0.3455023967037028</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6029920275792126</v>
+        <v>0.6041042273084907</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.6776167651800175</v>
+        <v>0.6767869663156516</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4479586011921285</v>
+        <v>0.4489520418757255</v>
       </c>
     </row>
     <row r="28">
@@ -2079,11 +2079,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3438</v>
+        <v>4046</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>5429</v>
+        <v>5348</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -2091,11 +2091,11 @@
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="n">
-        <v>4831</v>
+        <v>5257</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>6057</v>
+        <v>6226</v>
       </c>
       <c r="N11" s="6" t="inlineStr"/>
     </row>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3069</v>
+        <v>3773</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5576</v>
+        <v>5886</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
@@ -2239,36 +2239,36 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13928</v>
+        <v>14220</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>4152</v>
+        <v>3958</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4689</v>
+        <v>5617</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>7040</v>
+        <v>6918</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>7036</v>
+        <v>6268</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3428</v>
+        <v>3736</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17601</v>
+        <v>18812</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>5592</v>
+        <v>5250</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8102</v>
+        <v>7938</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>4350</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="16">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11767</v>
+        <v>12267</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2233</v>
+        <v>3061</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18988</v>
+        <v>17987</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3643</v>
+        <v>3895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6636</v>
+        <v>6758</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1011</v>
+        <v>974</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6246</v>
+        <v>5982</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21996</v>
+        <v>22115</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4408</v>
+        <v>5059</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>28654</v>
+        <v>26590</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5890</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="19">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24914</v>
+        <v>25344</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13318</v>
+        <v>13374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36072</v>
+        <v>36050</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16078</v>
+        <v>16734</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17706</v>
+        <v>18452</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8744</v>
+        <v>8630</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>17413</v>
+        <v>17602</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5675</v>
+        <v>6608</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>38859</v>
+        <v>39466</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17231</v>
+        <v>18038</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>49989</v>
+        <v>49514</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>20098</v>
+        <v>18884</v>
       </c>
     </row>
     <row r="20">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>130037</v>
+        <v>131142</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>97429</v>
+        <v>98592</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>141277</v>
+        <v>141658</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>52490</v>
+        <v>52498</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19366</v>
+        <v>19548</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16249</v>
+        <v>16489</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>35867</v>
+        <v>36785</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16613</v>
+        <v>16812</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>150773</v>
+        <v>153438</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>118861</v>
+        <v>118798</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>184397</v>
+        <v>183914</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>74682</v>
+        <v>73762</v>
       </c>
     </row>
     <row r="23">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>148830</v>
+        <v>149204</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>125093</v>
+        <v>125659</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>166163</v>
+        <v>165247</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>77686</v>
+        <v>75051</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36327</v>
+        <v>35250</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>33898</v>
+        <v>32646</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>57492</v>
+        <v>57912</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>29524</v>
+        <v>30325</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>180751</v>
+        <v>181573</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>154079</v>
+        <v>152770</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>217642</v>
+        <v>220302</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>102652</v>
+        <v>103460</v>
       </c>
     </row>
     <row r="24">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>278239</v>
+        <v>278067</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>287821</v>
+        <v>289524</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>315864</v>
+        <v>315991</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>189300</v>
+        <v>189228</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>74098</v>
+        <v>73601</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>114165</v>
+        <v>113721</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>128131</v>
+        <v>125210</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>121692</v>
+        <v>122490</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>352104</v>
+        <v>352256</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>408975</v>
+        <v>407105</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>445281</v>
+        <v>444304</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>317974</v>
+        <v>319279</v>
       </c>
     </row>
     <row r="27">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>284782</v>
+        <v>285674</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>302707</v>
+        <v>303486</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>323265</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>219234</v>
+        <v>219238</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>100807</v>
+        <v>98966</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>144744</v>
+        <v>143119</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>157489</v>
+        <v>156934</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>145353</v>
+        <v>145072</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>385165</v>
+        <v>387105</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>445347</v>
+        <v>444515</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>481858</v>
+        <v>481959</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>356705</v>
+        <v>356097</v>
       </c>
     </row>
     <row r="28">
@@ -2912,37 +2912,37 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>244585</v>
+        <v>243521</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>243162</v>
+        <v>243243</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>165638</v>
+        <v>166109</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>81304</v>
+        <v>81160</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>91551</v>
+        <v>92533</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>94548</v>
+        <v>95261</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>85742</v>
+        <v>85953</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>282622</v>
+        <v>282199</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>333747</v>
+        <v>332695</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>337695</v>
+        <v>337018</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>256244</v>
+        <v>257370</v>
       </c>
     </row>
     <row r="31">
@@ -2957,34 +2957,34 @@
         <v>248789</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>249518</v>
+        <v>249509</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>190657</v>
+        <v>190785</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>113627</v>
+        <v>112294</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>127215</v>
+        <v>126109</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>132703</v>
+        <v>131698</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>111412</v>
+        <v>110952</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>323379</v>
+        <v>324901</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>380281</v>
+        <v>380370</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>386480</v>
+        <v>385979</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>296798</v>
+        <v>296780</v>
       </c>
     </row>
     <row r="32">
@@ -3087,40 +3087,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>640382</v>
+        <v>638648</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>728582</v>
+        <v>728215</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>432318</v>
+        <v>430809</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>241166</v>
+        <v>239826</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>290505</v>
+        <v>289624</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>237429</v>
+        <v>238106</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>891489</v>
+        <v>894671</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1025664</v>
+        <v>1031420</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>683047</v>
+        <v>681769</v>
       </c>
     </row>
     <row r="35">
@@ -3131,40 +3131,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>693599</v>
+        <v>691136</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>775721</v>
+        <v>776323</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>482872</v>
+        <v>485213</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>293982</v>
+        <v>293139</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>346154</v>
+        <v>346223</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>277978</v>
+        <v>277731</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>975160</v>
+        <v>976959</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1110123</v>
+        <v>1108763</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>751808</v>
+        <v>753475</v>
       </c>
     </row>
     <row r="36">
